--- a/src/main/webapp/demoFileDownload/simproblemImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/simproblemImport_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\2020.3.08 修改模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E3D71-12C0-4781-BAF5-E4E0C857AB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB7B14-73EA-4145-AB91-4F40DBB2811A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
-    <t>题目内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项请在其末尾加英文*进行标记，多选题标记多个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayList*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>答案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>答案2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,19 +163,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项请在其末尾加英文*进行标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切记要将答案按照填空的顺序来排版，题目几个空对应几个答案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在JAVA中，____、____、____类的对象可被用作堆栈或者队列。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题号（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项请在其末尾加英文*进行标记                  （例如：选项1: LinkedList*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目分值（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项请在其末尾加英文*进行标记，多选题标记多个(例如选项1和2：LinkedList*、ArrayList*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案1（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在JAVA中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>____、____、____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类的对象可被用作堆栈或者队列。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切记要将答案按照填空的顺序来排版，题目有几个填空则对应几个答案。（填空____由四个_组成，请按照要求填写信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案内容（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +263,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -273,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -290,11 +333,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,85 +624,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.58203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -670,85 +716,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0304320-1A3E-466B-8775-3EA11A8317F2}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -759,89 +805,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1E9783-0998-445C-9A59-17618987A2C4}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="122.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -855,7 +901,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -869,7 +915,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -883,7 +929,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -897,7 +943,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -911,7 +957,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -925,7 +971,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -939,7 +985,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -953,7 +999,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -967,7 +1013,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -981,7 +1027,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -995,7 +1041,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1009,7 +1055,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1023,7 +1069,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1037,7 +1083,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1051,7 +1097,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1065,7 +1111,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1079,7 +1125,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1093,7 +1139,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1107,7 +1153,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1121,20 +1167,6 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1147,265 +1179,262 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E1CB8871-F1E3-4C9E-A2E5-5C4447303A3E}">
+      <formula1>"正确,错误"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75B778E-9D59-4931-AE0D-899F672BCABD}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
